--- a/ZrCuS/ZrCuS.xlsx
+++ b/ZrCuS/ZrCuS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuyouyu/WorkSpace/Mine/Lab106/BMG_Data_SHU/ZrCuS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2850928A-EFE4-264B-BC4A-1DD5D9941F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB931869-9827-0445-A84B-019E5DDC16D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>BMGs</t>
   </si>
@@ -205,47 +205,28 @@
     <t>S</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cu40Zr40S20</t>
-  </si>
-  <si>
-    <t>Cu40.0Zr40.0S20.0</t>
-  </si>
-  <si>
-    <t>Cu33.33Zr33.33S33.33</t>
-  </si>
-  <si>
-    <t>Cu28.57Zr28.57S42.86</t>
-  </si>
-  <si>
-    <t>S42.86Cu28.57Zr28.57</t>
-  </si>
-  <si>
-    <t>Cu25Zr25S50</t>
-  </si>
-  <si>
-    <t>S50.0Cu25.0Zr25.0</t>
-  </si>
-  <si>
-    <t>Cu22.22Zr22.22S55.56</t>
-  </si>
-  <si>
-    <t>S55.56Cu22.22Zr22.22</t>
-  </si>
-  <si>
-    <t>Cu20Zr20S60</t>
-  </si>
-  <si>
-    <t>S60.0Cu20.0Zr20.0</t>
-  </si>
-  <si>
-    <t>Cu16.67Zr16.67S66.67</t>
-  </si>
-  <si>
-    <t>S66.67Cu16.67Zr16.67</t>
-  </si>
-  <si>
     <t>Ε(%)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cu48Zr48S4</t>
+  </si>
+  <si>
+    <t>Cu48.5Zr48.5S3</t>
+  </si>
+  <si>
+    <t>Cu48.75Zr48.75S2.5</t>
+  </si>
+  <si>
+    <t>Cu49Zr49S2</t>
+  </si>
+  <si>
+    <t>Cu49.25Zr49.25S1.5</t>
+  </si>
+  <si>
+    <t>Cu49.5Zr49.5S1</t>
+  </si>
+  <si>
+    <t>Cu49.75Zr49.75S0.5</t>
   </si>
 </sst>
 </file>
@@ -622,11 +603,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I8"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="BB21" sqref="BB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
@@ -654,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -810,15 +794,15 @@
         <v>58</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:62">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -827,19 +811,19 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>671</v>
+        <v>683</v>
       </c>
       <c r="E2">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="G2">
-        <v>1630</v>
+        <v>1990</v>
       </c>
       <c r="H2">
-        <v>66.099999999999994</v>
+        <v>81.400000000000006</v>
       </c>
       <c r="I2" s="2">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -884,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Y2">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -995,10 +979,10 @@
         <v>0</v>
       </c>
       <c r="BI2">
+        <v>4</v>
+      </c>
+      <c r="BJ2">
         <v>1</v>
-      </c>
-      <c r="BJ2">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:62">
@@ -1012,22 +996,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="E3">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="F3">
-        <v>1215</v>
+        <v>1201</v>
       </c>
       <c r="G3">
-        <v>1780</v>
+        <v>1990</v>
       </c>
       <c r="H3">
-        <v>71.5</v>
+        <v>82.2</v>
       </c>
       <c r="I3" s="2">
-        <v>11.6</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1072,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>33.33</v>
+        <v>48.5</v>
       </c>
       <c r="Y3">
-        <v>33.33</v>
+        <v>48.5</v>
       </c>
       <c r="Z3">
         <v>0</v>
@@ -1183,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="BI3">
+        <v>3</v>
+      </c>
+      <c r="BJ3">
         <v>1</v>
-      </c>
-      <c r="BJ3">
-        <v>33.33</v>
       </c>
     </row>
     <row r="4" spans="1:62">
@@ -1194,25 +1178,25 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="E4">
-        <v>736</v>
+        <v>749</v>
       </c>
       <c r="G4">
-        <v>1990</v>
+        <v>2010</v>
       </c>
       <c r="H4">
-        <v>81.400000000000006</v>
+        <v>82.1</v>
       </c>
       <c r="I4" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1257,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>28.57</v>
+        <v>48.75</v>
       </c>
       <c r="Y4">
-        <v>28.57</v>
+        <v>48.75</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1368,39 +1352,36 @@
         <v>0</v>
       </c>
       <c r="BI4">
+        <v>2.5</v>
+      </c>
+      <c r="BJ4">
         <v>1</v>
-      </c>
-      <c r="BJ4">
-        <v>42.86</v>
       </c>
     </row>
     <row r="5" spans="1:62">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="E5">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="F5">
-        <v>1201</v>
-      </c>
-      <c r="G5">
-        <v>1990</v>
+        <v>1196</v>
       </c>
       <c r="H5">
-        <v>82.2</v>
+        <v>83.6</v>
       </c>
       <c r="I5" s="2">
-        <v>3.3</v>
+        <v>0.3</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1445,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="X5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Y5">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1556,36 +1537,36 @@
         <v>0</v>
       </c>
       <c r="BI5">
+        <v>2</v>
+      </c>
+      <c r="BJ5">
         <v>1</v>
-      </c>
-      <c r="BJ5">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:62">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="E6">
-        <v>749</v>
-      </c>
-      <c r="G6">
-        <v>2010</v>
+        <v>767</v>
+      </c>
+      <c r="F6">
+        <v>1352</v>
       </c>
       <c r="H6">
-        <v>82.1</v>
+        <v>93.2</v>
       </c>
       <c r="I6" s="2">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1630,10 +1611,10 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>22.22</v>
+        <v>49.25</v>
       </c>
       <c r="Y6">
-        <v>22.22</v>
+        <v>49.25</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1741,36 +1722,39 @@
         <v>0</v>
       </c>
       <c r="BI6">
+        <v>1.5</v>
+      </c>
+      <c r="BJ6">
         <v>1</v>
-      </c>
-      <c r="BJ6">
-        <v>55.56</v>
       </c>
     </row>
     <row r="7" spans="1:62">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="E7">
-        <v>758</v>
+        <v>730</v>
       </c>
       <c r="F7">
-        <v>1196</v>
+        <v>1215</v>
+      </c>
+      <c r="G7">
+        <v>1780</v>
       </c>
       <c r="H7">
-        <v>83.6</v>
+        <v>71.5</v>
       </c>
       <c r="I7" s="2">
-        <v>2.5</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1815,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="X7">
-        <v>20</v>
+        <v>49.5</v>
       </c>
       <c r="Y7">
-        <v>20</v>
+        <v>49.5</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1929,33 +1913,33 @@
         <v>1</v>
       </c>
       <c r="BJ7">
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:62">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="E8">
-        <v>767</v>
-      </c>
-      <c r="F8">
-        <v>1352</v>
+        <v>722</v>
+      </c>
+      <c r="G8">
+        <v>1630</v>
       </c>
       <c r="H8">
-        <v>93.2</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="I8" s="2">
-        <v>2.2999999999999998</v>
+        <v>7.8</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2000,10 +1984,10 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>16.670000000000002</v>
+        <v>49.75</v>
       </c>
       <c r="Y8">
-        <v>16.670000000000002</v>
+        <v>49.75</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -2111,10 +2095,10 @@
         <v>0</v>
       </c>
       <c r="BI8">
+        <v>0.5</v>
+      </c>
+      <c r="BJ8">
         <v>1</v>
-      </c>
-      <c r="BJ8">
-        <v>66.67</v>
       </c>
     </row>
   </sheetData>
